--- a/docs/IcoSem3ProgramVirtual.xlsx
+++ b/docs/IcoSem3ProgramVirtual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEB41C4-4399-8A4A-91D7-0DEE61EE9A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94831EA8-CC1F-AC44-A153-EF82905598EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1340" windowWidth="27700" windowHeight="16880" xr2:uid="{91D63860-86D1-9C45-8E70-65F0B3D41393}"/>
   </bookViews>
@@ -36,17 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Sound-action symbolism in (manual) action verbs: preliminary results from a crosslinguistic study</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Loic Renoud </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Natalie Côté </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -131,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Break</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Onyinye Anulika Chiemezie </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,10 +156,6 @@
   </si>
   <si>
     <t>Iconicity and self-evidencing in speech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iconic vowel alternations in Korean ideophones</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,6 +247,14 @@
       </rPr>
       <t>ka. Azija?</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long break</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,23 +656,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81001172-6432-3349-9180-5B5A6E9D8A93}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -684,10 +680,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -698,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -706,10 +702,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -717,10 +710,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -728,10 +721,10 @@
         <v>0.4375</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -739,10 +732,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -750,10 +743,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -761,7 +754,7 @@
         <v>0.5</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -769,10 +762,10 @@
         <v>0.625</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -780,7 +773,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -791,10 +784,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -802,10 +795,10 @@
         <v>0.6875</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -813,10 +806,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -824,10 +814,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -835,10 +825,10 @@
         <v>0.75</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -846,10 +836,21 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/IcoSem3ProgramVirtual.xlsx
+++ b/docs/IcoSem3ProgramVirtual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94831EA8-CC1F-AC44-A153-EF82905598EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFE231C-3E16-D046-A9AF-0BC4142508DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1340" windowWidth="27700" windowHeight="16880" xr2:uid="{91D63860-86D1-9C45-8E70-65F0B3D41393}"/>
   </bookViews>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tonal alternation and repetition in the derivational morphology of Igala ideophones</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Iconicity in Haitian Creole: The onomatopoeic origins of bird names</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,6 +251,10 @@
   </si>
   <si>
     <t>Long break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iconicity of tonal polarity in Igala</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,20 +659,20 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -680,10 +680,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -702,7 +702,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -735,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -746,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -754,7 +754,7 @@
         <v>0.5</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -765,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -787,7 +787,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -798,7 +798,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -806,7 +806,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -817,7 +817,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -828,7 +828,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -836,10 +836,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -850,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/IcoSem3ProgramVirtual.xlsx
+++ b/docs/IcoSem3ProgramVirtual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFE231C-3E16-D046-A9AF-0BC4142508DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E41D62-B89C-9A4B-AA59-0388B52BEB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="1340" windowWidth="27700" windowHeight="16880" xr2:uid="{91D63860-86D1-9C45-8E70-65F0B3D41393}"/>
   </bookViews>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Sound-action symbolism in (manual) action verbs: preliminary results from a crosslinguistic study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Loic Renoud </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,10 +124,6 @@
   </si>
   <si>
     <t>Onyinye Anulika Chiemezie </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sami Huttunen </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -659,20 +651,20 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -680,10 +672,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -691,10 +683,10 @@
         <v>0.375</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -702,7 +694,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -710,10 +702,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -721,10 +713,10 @@
         <v>0.4375</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -732,10 +724,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -743,10 +735,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -754,7 +746,7 @@
         <v>0.5</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -762,10 +754,10 @@
         <v>0.625</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -773,10 +765,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -784,10 +773,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -795,10 +784,10 @@
         <v>0.6875</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -806,7 +795,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -814,10 +803,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -825,10 +814,10 @@
         <v>0.75</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -836,10 +825,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -847,10 +836,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
